--- a/Ada.Web/upload/bilibili.xlsx
+++ b/Ada.Web/upload/bilibili.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>媒体名称</t>
   </si>
@@ -77,9 +77,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>作家记</t>
-  </si>
-  <si>
     <t>生活</t>
   </si>
   <si>
@@ -89,7 +86,109 @@
     <t>X1801180851430024</t>
   </si>
   <si>
-    <t>X1808241009435685</t>
+    <t>X1801022054390425</t>
+  </si>
+  <si>
+    <t>你的大哥一号</t>
+  </si>
+  <si>
+    <t>美妆</t>
+  </si>
+  <si>
+    <t>X1903071149060853</t>
+  </si>
+  <si>
+    <t>小紧张的虫虫</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>X1903071151240858</t>
+  </si>
+  <si>
+    <t>阿瘾是条咸鱼</t>
+  </si>
+  <si>
+    <t>影视</t>
+  </si>
+  <si>
+    <t>软植入800-1k 定制2k5</t>
+  </si>
+  <si>
+    <t>X1903071354225275</t>
+  </si>
+  <si>
+    <t>咕噜健身厨房</t>
+  </si>
+  <si>
+    <t>运动，美食</t>
+  </si>
+  <si>
+    <t>X1903081404371076</t>
+  </si>
+  <si>
+    <t>想吃烧烤的西瓜瓜</t>
+  </si>
+  <si>
+    <t>校园，穿撘，生活</t>
+  </si>
+  <si>
+    <t>X1805161424423842</t>
+  </si>
+  <si>
+    <t>蓉点儿</t>
+  </si>
+  <si>
+    <t>制作周期10-15天，少于原创周期加急报价*1.5
+非游戏类，可85折</t>
+  </si>
+  <si>
+    <t>敬汉卿</t>
+  </si>
+  <si>
+    <t>制作周期14-21天，少于原创周期加急报价*1.5
+非游戏类，可85折</t>
+  </si>
+  <si>
+    <t>视角姬</t>
+  </si>
+  <si>
+    <t>游戏，生活</t>
+  </si>
+  <si>
+    <t>制作周期5-7天，少于原创周期加急报价*1.5
+非游戏类，可85折</t>
+  </si>
+  <si>
+    <t>徐大虾咯</t>
+  </si>
+  <si>
+    <t>大胃王朵一</t>
+  </si>
+  <si>
+    <t>制作周期7-15天，少于原创周期加急报价*1.5
+非游戏类，可85折</t>
+  </si>
+  <si>
+    <t>柚子又抽了</t>
+  </si>
+  <si>
+    <t>制作周期15-20天，少于原创周期加急报价*1.5
+非游戏类，可85折</t>
+  </si>
+  <si>
+    <t>X1903121344210045</t>
+  </si>
+  <si>
+    <t>极客匠</t>
+  </si>
+  <si>
+    <t>数码科技</t>
+  </si>
+  <si>
+    <t>1）短视频内容制作（简单版工艺品制作以及展示）推广：1w+
+，2)全套（长、短视频内容定制植入推广，全网分发，文案支持）：3w+</t>
   </si>
 </sst>
 </file>
@@ -499,11 +598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -569,37 +668,473 @@
     </row>
     <row r="2" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>299460291</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6087825</v>
+      </c>
+      <c r="D3" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2">
+        <v>17000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2328551</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10498826</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2463448</v>
+      </c>
+      <c r="D6" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2">
+        <v>32050054</v>
+      </c>
+      <c r="D7" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2">
+        <v>31200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>49400</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9824766</v>
+      </c>
+      <c r="D8" s="2">
+        <v>182.6</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>186605701</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>190000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
-        <v>118000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="N8" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
-        <v>17</v>
+    </row>
+    <row r="9" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
+        <v>52250</v>
+      </c>
+      <c r="D9" s="2">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>165100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>56600</v>
+      </c>
+      <c r="K9" s="2">
+        <v>48000</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13354765</v>
+      </c>
+      <c r="D10" s="2">
+        <v>118.3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>75400</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>24200</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9000</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2">
+        <v>63023562</v>
+      </c>
+      <c r="D11" s="2">
+        <v>48.1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>325000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2">
+        <v>913497</v>
+      </c>
+      <c r="D12" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>70200</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>13500</v>
+      </c>
+      <c r="K12" s="2">
+        <v>6500</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>129259501</v>
+      </c>
+      <c r="D13" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/bilibili.xlsx
+++ b/Ada.Web/upload/bilibili.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="168">
   <si>
     <t>媒体名称</t>
   </si>
@@ -86,109 +86,469 @@
     <t>X1801180851430024</t>
   </si>
   <si>
-    <t>X1801022054390425</t>
-  </si>
-  <si>
-    <t>你的大哥一号</t>
-  </si>
-  <si>
     <t>美妆</t>
   </si>
   <si>
-    <t>X1903071149060853</t>
-  </si>
-  <si>
-    <t>小紧张的虫虫</t>
-  </si>
-  <si>
     <t>美食</t>
   </si>
   <si>
-    <t>X1903071151240858</t>
-  </si>
-  <si>
-    <t>阿瘾是条咸鱼</t>
-  </si>
-  <si>
     <t>影视</t>
   </si>
   <si>
-    <t>软植入800-1k 定制2k5</t>
-  </si>
-  <si>
-    <t>X1903071354225275</t>
-  </si>
-  <si>
-    <t>咕噜健身厨房</t>
-  </si>
-  <si>
-    <t>运动，美食</t>
-  </si>
-  <si>
-    <t>X1903081404371076</t>
-  </si>
-  <si>
-    <t>想吃烧烤的西瓜瓜</t>
-  </si>
-  <si>
-    <t>校园，穿撘，生活</t>
-  </si>
-  <si>
-    <t>X1805161424423842</t>
-  </si>
-  <si>
-    <t>蓉点儿</t>
-  </si>
-  <si>
-    <t>制作周期10-15天，少于原创周期加急报价*1.5
-非游戏类，可85折</t>
-  </si>
-  <si>
-    <t>敬汉卿</t>
-  </si>
-  <si>
-    <t>制作周期14-21天，少于原创周期加急报价*1.5
-非游戏类，可85折</t>
-  </si>
-  <si>
-    <t>视角姬</t>
-  </si>
-  <si>
-    <t>游戏，生活</t>
-  </si>
-  <si>
-    <t>制作周期5-7天，少于原创周期加急报价*1.5
-非游戏类，可85折</t>
-  </si>
-  <si>
-    <t>徐大虾咯</t>
-  </si>
-  <si>
-    <t>大胃王朵一</t>
-  </si>
-  <si>
-    <t>制作周期7-15天，少于原创周期加急报价*1.5
-非游戏类，可85折</t>
-  </si>
-  <si>
-    <t>柚子又抽了</t>
-  </si>
-  <si>
-    <t>制作周期15-20天，少于原创周期加急报价*1.5
-非游戏类，可85折</t>
-  </si>
-  <si>
-    <t>X1903121344210045</t>
-  </si>
-  <si>
-    <t>极客匠</t>
-  </si>
-  <si>
     <t>数码科技</t>
   </si>
   <si>
-    <t>1）短视频内容制作（简单版工艺品制作以及展示）推广：1w+
-，2)全套（长、短视频内容定制植入推广，全网分发，文案支持）：3w+</t>
+    <t>X1810251158410834</t>
+  </si>
+  <si>
+    <t>草匠匠匠匠</t>
+  </si>
+  <si>
+    <t>穿搭，生活，美妆</t>
+  </si>
+  <si>
+    <t>小酒栗Joly</t>
+  </si>
+  <si>
+    <t>美妆，美食，生活</t>
+  </si>
+  <si>
+    <t>暂不接</t>
+  </si>
+  <si>
+    <t>肉团夫斯基</t>
+  </si>
+  <si>
+    <t>海外/韩国</t>
+  </si>
+  <si>
+    <t>生活，美妆，美食</t>
+  </si>
+  <si>
+    <t>具体项目询价</t>
+  </si>
+  <si>
+    <t>九麻MAA</t>
+  </si>
+  <si>
+    <t>AnnaZhuXuan</t>
+  </si>
+  <si>
+    <t>北京/日本</t>
+  </si>
+  <si>
+    <t>陈吃饭_</t>
+  </si>
+  <si>
+    <t>幽默搞笑，美妆，穿搭</t>
+  </si>
+  <si>
+    <t>记得爱小郭</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>你吉叔</t>
+  </si>
+  <si>
+    <t>生活，穿搭，美食，美妆</t>
+  </si>
+  <si>
+    <t>X1904081710023145</t>
+  </si>
+  <si>
+    <t>栗阿阿阿</t>
+  </si>
+  <si>
+    <t>X1808241009435685</t>
+  </si>
+  <si>
+    <t>可可味</t>
+  </si>
+  <si>
+    <t>游戏，音乐</t>
+  </si>
+  <si>
+    <t>有85折扣</t>
+  </si>
+  <si>
+    <t>酷酷的滕</t>
+  </si>
+  <si>
+    <t>幽默搞笑</t>
+  </si>
+  <si>
+    <t>呆妹小霸王</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>名字君不会混剪</t>
+  </si>
+  <si>
+    <t>偷偷抱住</t>
+  </si>
+  <si>
+    <t>蓝二烟</t>
+  </si>
+  <si>
+    <t>懒羊羊的鸡</t>
+  </si>
+  <si>
+    <t>大衣猫の钢爪</t>
+  </si>
+  <si>
+    <t>小学生看世界</t>
+  </si>
+  <si>
+    <t>解说</t>
+  </si>
+  <si>
+    <t>李威言</t>
+  </si>
+  <si>
+    <t>麦馆姐姐</t>
+  </si>
+  <si>
+    <t>X1808061547116118</t>
+  </si>
+  <si>
+    <t>狂阿弥爷</t>
+  </si>
+  <si>
+    <t>X1904240917178012</t>
+  </si>
+  <si>
+    <t>樱满八幡</t>
+  </si>
+  <si>
+    <t>动画漫画</t>
+  </si>
+  <si>
+    <t>动态转发：300
+动态直发：600
+动态短视频广告：600</t>
+  </si>
+  <si>
+    <t>X1904240959398337</t>
+  </si>
+  <si>
+    <t>圣心Fckle</t>
+  </si>
+  <si>
+    <t>动画漫画，游戏</t>
+  </si>
+  <si>
+    <t>X1904241017140036</t>
+  </si>
+  <si>
+    <t>十代冥王</t>
+  </si>
+  <si>
+    <t>游戏，鬼畜，影视，娱乐</t>
+  </si>
+  <si>
+    <t>定制鬼畜视频报价1万5，定制解说报价1万，日常解说视频贴片广告报价3000</t>
+  </si>
+  <si>
+    <t>X1904241034460327</t>
+  </si>
+  <si>
+    <t>短刀与毒</t>
+  </si>
+  <si>
+    <t>软广4k+</t>
+  </si>
+  <si>
+    <t>X1904241337289860</t>
+  </si>
+  <si>
+    <t>奇趣研究</t>
+  </si>
+  <si>
+    <t>X1904241339449907</t>
+  </si>
+  <si>
+    <t>丰兄来了</t>
+  </si>
+  <si>
+    <t>游戏，影视</t>
+  </si>
+  <si>
+    <t>X1904241405542378</t>
+  </si>
+  <si>
+    <t>起小点是大腿</t>
+  </si>
+  <si>
+    <t>幽默搞笑，游戏，鬼畜</t>
+  </si>
+  <si>
+    <t>长歌与小见见</t>
+  </si>
+  <si>
+    <t>靠谱电竞</t>
+  </si>
+  <si>
+    <t>是大腿行动局</t>
+  </si>
+  <si>
+    <t>答案4nswer</t>
+  </si>
+  <si>
+    <t>X1904241422025933</t>
+  </si>
+  <si>
+    <t>马克Sparrow</t>
+  </si>
+  <si>
+    <t>不接代投</t>
+  </si>
+  <si>
+    <t>X1904241553440972</t>
+  </si>
+  <si>
+    <t>蛋霸霸No1</t>
+  </si>
+  <si>
+    <t>原创视频看项目报价</t>
+  </si>
+  <si>
+    <t>X1904241714131145</t>
+  </si>
+  <si>
+    <t>刘哔电影</t>
+  </si>
+  <si>
+    <t>老邪说电影</t>
+  </si>
+  <si>
+    <t>乔好玩</t>
+  </si>
+  <si>
+    <t>玩家小夫</t>
+  </si>
+  <si>
+    <t>桃乐汐吸了个剧</t>
+  </si>
+  <si>
+    <t>影视，娱乐</t>
+  </si>
+  <si>
+    <t>X1904251051531102</t>
+  </si>
+  <si>
+    <t>独立菌儿</t>
+  </si>
+  <si>
+    <t>不代投</t>
+  </si>
+  <si>
+    <t>X1904281019030498</t>
+  </si>
+  <si>
+    <t>柯力卬Kleon</t>
+  </si>
+  <si>
+    <t>文学文化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暂不代投、直播、转发，定制软植3k起，价格根据植入时长和定制程度决定
+</t>
+  </si>
+  <si>
+    <t>有85折扣
+线下直播70000</t>
+  </si>
+  <si>
+    <t>有85折扣
+线下直播130000</t>
+  </si>
+  <si>
+    <t>有85折扣
+线下直播36000</t>
+  </si>
+  <si>
+    <t>有85折扣
+线下直播26000</t>
+  </si>
+  <si>
+    <t>灵魂健身杨老师</t>
+  </si>
+  <si>
+    <t>37sama丶</t>
+  </si>
+  <si>
+    <t>有85折扣
+线下直播25000</t>
+  </si>
+  <si>
+    <t>德井鱼</t>
+  </si>
+  <si>
+    <t>就是馆馆</t>
+  </si>
+  <si>
+    <t>搞笑</t>
+  </si>
+  <si>
+    <t>有85折扣
+线下直播12000</t>
+  </si>
+  <si>
+    <t>有85折扣
+线下直播23000</t>
+  </si>
+  <si>
+    <t>X1804251558297383</t>
+  </si>
+  <si>
+    <t>认真少女_颜九</t>
+  </si>
+  <si>
+    <t>有85折扣，分发45000</t>
+  </si>
+  <si>
+    <t>道上都叫我赤木刚宪</t>
+  </si>
+  <si>
+    <t>有85折扣，分发35000</t>
+  </si>
+  <si>
+    <t>陈奶酪Yuki</t>
+  </si>
+  <si>
+    <t>有85折扣，分发7000</t>
+  </si>
+  <si>
+    <t>喵格singherC</t>
+  </si>
+  <si>
+    <t>绵羊料理</t>
+  </si>
+  <si>
+    <t>有85折扣，分发30000</t>
+  </si>
+  <si>
+    <t>爱做饭的芋头SAMA</t>
+  </si>
+  <si>
+    <t>馋音TastySound</t>
+  </si>
+  <si>
+    <t>有85折扣，分发15000</t>
+  </si>
+  <si>
+    <t>上官带刀</t>
+  </si>
+  <si>
+    <t>有85折扣，分发5000</t>
+  </si>
+  <si>
+    <t>私人音乐厅</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>曲肖冰</t>
+  </si>
+  <si>
+    <t>X1801022054390429</t>
+  </si>
+  <si>
+    <t>莫尼monika</t>
+  </si>
+  <si>
+    <t>美妆，穿搭</t>
+  </si>
+  <si>
+    <t>X1803061655376181</t>
+  </si>
+  <si>
+    <t>西米苏桑</t>
+  </si>
+  <si>
+    <t>ki_shasha</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>鸭梨酱啊啊啊</t>
+  </si>
+  <si>
+    <t>唐山</t>
+  </si>
+  <si>
+    <t>Ma-suki</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>Drasson</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>X1810230859422888</t>
+  </si>
+  <si>
+    <t>大盒打盒</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>毕设暂停更新中，大概6月回归更新</t>
+  </si>
+  <si>
+    <t>程十安an</t>
+  </si>
+  <si>
+    <t>Rita是瑞瑞</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>商业鬼畜视频制作+发布11w（制作周期4周）是大腿TOP105.5w（制作周期2周）</t>
+  </si>
+  <si>
+    <t>（制作周期2周）游戏试玩/测评制作+发布49500见谈3.3w主播真会玩挑战篇22w主播真会玩八卦篇2.8w</t>
+  </si>
+  <si>
+    <t>（制作周期2周）靠谱盘点</t>
+  </si>
+  <si>
+    <t>（制作周期2周）行动局试玩3wAPEX行动2w</t>
+  </si>
+  <si>
+    <t>（制作周期1周）游戏试玩制作+发布16500内容定制植入20000</t>
+  </si>
+  <si>
+    <t>制作周期一周全平台发布：95,800元主要平台：微博、秒拍、a站、b站、公众号、企鹅号、一点号、百家号、美拍、网易号、网易云、今日头条、大鱼号、优酷、爱奇艺、淘个片、虎扑、咪咕、知乎</t>
+  </si>
+  <si>
+    <t>制作周期一周</t>
+  </si>
+  <si>
+    <t>制作周期：10天
+游戏、产品开头冠名赞助播出5400发布平台：微博+B站发布</t>
+  </si>
+  <si>
+    <t>制作周期：10天
+游戏、产品开头冠名赞助播出3780发布平台：微博+B站发布</t>
+  </si>
+  <si>
+    <t>超级小海鸥</t>
+  </si>
+  <si>
+    <t>超级大轰隆</t>
   </si>
 </sst>
 </file>
@@ -598,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,25 +1028,25 @@
     </row>
     <row r="2" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
-        <v>299460291</v>
+        <v>7974144</v>
       </c>
       <c r="D2" s="2">
-        <v>3.5</v>
+        <v>17.7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="H2" s="2">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -706,22 +1066,22 @@
     </row>
     <row r="3" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
-        <v>6087825</v>
+        <v>291780438</v>
       </c>
       <c r="D3" s="2">
-        <v>27.6</v>
+        <v>13.4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -733,7 +1093,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>15</v>
@@ -744,25 +1107,28 @@
     </row>
     <row r="4" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
-        <v>2328551</v>
+        <v>16469390</v>
       </c>
       <c r="D4" s="2">
-        <v>7.4</v>
+        <v>7.6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -774,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>15</v>
@@ -785,25 +1151,25 @@
     </row>
     <row r="5" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
-        <v>10498826</v>
+        <v>21974326</v>
       </c>
       <c r="D5" s="2">
-        <v>16.5</v>
+        <v>5.8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -812,7 +1178,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>15</v>
@@ -823,25 +1192,28 @@
     </row>
     <row r="6" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
-        <v>2463448</v>
+        <v>95293884</v>
       </c>
       <c r="D6" s="2">
-        <v>13.7</v>
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="H6" s="2">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -850,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>15</v>
@@ -861,25 +1233,25 @@
     </row>
     <row r="7" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="2">
-        <v>32050054</v>
+        <v>75912367</v>
       </c>
       <c r="D7" s="2">
-        <v>27.9</v>
+        <v>4.8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2">
-        <v>31200</v>
+        <v>15000</v>
       </c>
       <c r="H7" s="2">
-        <v>49400</v>
+        <v>12000</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -888,10 +1260,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>35</v>
+        <v>3000</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>15</v>
@@ -902,25 +1271,28 @@
     </row>
     <row r="8" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="2">
-        <v>9824766</v>
+        <v>62834777</v>
       </c>
       <c r="D8" s="2">
-        <v>182.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H8" s="2">
-        <v>190000</v>
+        <v>6000</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -929,10 +1301,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>37</v>
+        <v>1000</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>15</v>
@@ -943,37 +1312,34 @@
     </row>
     <row r="9" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="2">
-        <v>52250</v>
+        <v>82045831</v>
       </c>
       <c r="D9" s="2">
-        <v>137.80000000000001</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="H9" s="2">
-        <v>165100</v>
+        <v>37000</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>56600</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>48000</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>15</v>
@@ -984,37 +1350,40 @@
     </row>
     <row r="10" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="2">
-        <v>13354765</v>
+        <v>18545034</v>
       </c>
       <c r="D10" s="2">
-        <v>118.3</v>
+        <v>18.5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H10" s="2">
-        <v>75400</v>
+        <v>15000</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>24200</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>15</v>
@@ -1025,37 +1394,37 @@
     </row>
     <row r="11" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2">
-        <v>63023562</v>
+        <v>198439</v>
       </c>
       <c r="D11" s="2">
-        <v>48.1</v>
+        <v>85.2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>325000</v>
+        <v>91000</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>35600</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>15</v>
@@ -1066,34 +1435,34 @@
     </row>
     <row r="12" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2">
-        <v>913497</v>
+        <v>39247212</v>
       </c>
       <c r="D12" s="2">
-        <v>41.9</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>70200</v>
+        <v>143000</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>6500</v>
+        <v>35300</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>45</v>
@@ -1107,33 +1476,2539 @@
     </row>
     <row r="13" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2">
+        <v>247743458</v>
+      </c>
+      <c r="D13" s="2">
+        <v>57.3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>144000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>40000</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2">
+        <v>37672137</v>
+      </c>
+      <c r="D14" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>40640</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>24400</v>
+      </c>
+      <c r="K14" s="2">
+        <v>7100</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2">
+        <v>385346792</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>26000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>15000</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3700</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7206526</v>
+      </c>
+      <c r="D16" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>26000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>11000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2">
+        <v>381833436</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>22000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>9800</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2900</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4367522</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20800</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>11000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2">
+        <v>77028564</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>61600</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>28400</v>
+      </c>
+      <c r="K19" s="2">
+        <v>8400</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8631072</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>9700</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2800</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2">
+        <v>166314789</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>56800</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>24400</v>
+      </c>
+      <c r="K21" s="2">
+        <v>10600</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3433092</v>
+      </c>
+      <c r="D22" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2">
+        <v>11766439</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>600</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2">
+        <v>78394457</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>800</v>
+      </c>
+      <c r="J24" s="2">
+        <v>200</v>
+      </c>
+      <c r="K24" s="2">
+        <v>500</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2">
+        <v>763712</v>
+      </c>
+      <c r="D25" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2">
+        <v>28832</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2">
+        <v>256283682</v>
+      </c>
+      <c r="D27" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2500</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>500</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1918296</v>
+      </c>
+      <c r="D28" s="2">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>60000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1565155</v>
+      </c>
+      <c r="D29" s="2">
+        <v>258</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>110000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>18000</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3682229</v>
+      </c>
+      <c r="D30" s="2">
+        <v>137</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>49500</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="2">
+        <v>279991456</v>
+      </c>
+      <c r="D31" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>45000</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>4000</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="2">
+        <v>30588461</v>
+      </c>
+      <c r="D32" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>4500</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43695117</v>
+      </c>
+      <c r="D33" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="2">
+        <v>20000</v>
+      </c>
+      <c r="H33" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>2500</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2">
+        <v>103416759</v>
+      </c>
+      <c r="D34" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="2">
+        <v>20000</v>
+      </c>
+      <c r="H34" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>7000</v>
+      </c>
+      <c r="K34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="2">
+        <v>152072827</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>300</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="2">
+        <v>27218150</v>
+      </c>
+      <c r="D36" s="2">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="2">
+        <v>55800</v>
+      </c>
+      <c r="H36" s="2">
+        <v>55800</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>19500</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="2">
+        <v>27218150</v>
+      </c>
+      <c r="D37" s="2">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="F37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="2">
+        <v>16200</v>
+      </c>
+      <c r="H37" s="2">
+        <v>16200</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>10500</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="2">
+        <v>9426394</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>12960</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2">
+        <v>358017601</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>10800</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10720237</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>9180</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="2">
+        <v>102984190</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45.7</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6312652</v>
+      </c>
+      <c r="D42" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2">
+        <v>198439</v>
+      </c>
+      <c r="D43" s="2">
+        <v>85.4</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45500</v>
+      </c>
+      <c r="H43" s="2">
+        <v>91000</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>35600</v>
+      </c>
+      <c r="K43" s="2">
+        <v>12800</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2">
+        <v>39247212</v>
+      </c>
+      <c r="D44" s="2">
+        <v>76.2</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="2">
+        <v>71500</v>
+      </c>
+      <c r="H44" s="2">
+        <v>143000</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>35300</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2">
+        <v>37672137</v>
+      </c>
+      <c r="D45" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="2">
+        <v>26500</v>
+      </c>
+      <c r="H45" s="2">
+        <v>53000</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>24400</v>
+      </c>
+      <c r="K45" s="2">
+        <v>7100</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="2">
+        <v>385346792</v>
+      </c>
+      <c r="D46" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="2">
+        <v>13000</v>
+      </c>
+      <c r="H46" s="2">
+        <v>26000</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>15000</v>
+      </c>
+      <c r="K46" s="2">
+        <v>3700</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="2">
+        <v>16419172</v>
+      </c>
+      <c r="D47" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="2">
+        <v>12000</v>
+      </c>
+      <c r="H47" s="2">
+        <v>24000</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="2">
+        <v>34800353</v>
+      </c>
+      <c r="D48" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="2">
+        <v>13000</v>
+      </c>
+      <c r="H48" s="2">
+        <v>26000</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>11000</v>
+      </c>
+      <c r="K48" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2703253</v>
+      </c>
+      <c r="D49" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="2">
+        <v>13000</v>
+      </c>
+      <c r="H49" s="2">
+        <v>26000</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>11000</v>
+      </c>
+      <c r="K49" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="2">
+        <v>8479929</v>
+      </c>
+      <c r="D50" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="2">
+        <v>13000</v>
+      </c>
+      <c r="H50" s="2">
+        <v>26000</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>11000</v>
+      </c>
+      <c r="K50" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7206526</v>
+      </c>
+      <c r="D51" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="2">
+        <v>13000</v>
+      </c>
+      <c r="H51" s="2">
+        <v>26000</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>11000</v>
+      </c>
+      <c r="K51" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2">
+        <v>381833436</v>
+      </c>
+      <c r="D52" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="2">
+        <v>11000</v>
+      </c>
+      <c r="H52" s="2">
+        <v>22000</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>9800</v>
+      </c>
+      <c r="K52" s="2">
+        <v>2900</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4367522</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8000</v>
+      </c>
+      <c r="H53" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>11000</v>
+      </c>
+      <c r="K53" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="2">
+        <v>60235755</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="2">
+        <v>96800</v>
+      </c>
+      <c r="H54" s="2">
+        <v>193600</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>21000</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="2">
+        <v>8114704</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>4800</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1400</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2">
+        <v>8631072</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H56" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>9700</v>
+      </c>
+      <c r="K56" s="2">
+        <v>2800</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2">
+        <v>12981716</v>
+      </c>
+      <c r="D57" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>80000</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2">
+        <v>298645060</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>60000</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="2">
+        <v>391871660</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>15000</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2">
+        <v>265759207</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="2">
+        <v>18202105</v>
+      </c>
+      <c r="D61" s="2">
+        <v>100</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>50000</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="2">
+        <v>17409016</v>
+      </c>
+      <c r="D62" s="2">
+        <v>222</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>200000</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="2">
+        <v>51359833</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>25000</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="2">
+        <v>250966260</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2">
-        <v>129259501</v>
-      </c>
-      <c r="D13" s="2">
-        <v>27.6</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10000</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2000</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="2">
+        <v>106386204</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="2">
+        <v>250872449</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="2">
+        <v>19888246</v>
+      </c>
+      <c r="D67" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" s="2">
+        <v>6500</v>
+      </c>
+      <c r="H67" s="2">
+        <v>13000</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="2">
+        <v>169310957</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="2">
+        <v>88565917</v>
+      </c>
+      <c r="D69" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="2">
+        <v>25058387</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>75000</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="2">
+        <v>175434717</v>
+      </c>
+      <c r="D71" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>75000</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="2">
+        <v>10964575</v>
+      </c>
+      <c r="D72" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>15000</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="2">
+        <v>6700597</v>
+      </c>
+      <c r="D73" s="2">
+        <v>10</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H73" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="2">
+        <v>327750329</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H74" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="2">
+        <v>41175301</v>
+      </c>
+      <c r="D75" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H75" s="2">
+        <v>8000</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N75" t="s">
         <v>16</v>
       </c>
     </row>
